--- a/Code/Results/Cases/Case_3_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.201378112940546</v>
+        <v>0.9033119704407397</v>
       </c>
       <c r="C2">
-        <v>0.09520407332317404</v>
+        <v>0.04477016915814147</v>
       </c>
       <c r="D2">
-        <v>0.06985977539189037</v>
+        <v>0.1068254417072581</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092108762494561</v>
+        <v>2.1521882487867</v>
       </c>
       <c r="G2">
-        <v>0.8134177042805533</v>
+        <v>1.476200289105861</v>
       </c>
       <c r="H2">
-        <v>0.5959863029713119</v>
+        <v>1.363154875329542</v>
       </c>
       <c r="I2">
-        <v>0.6249544245204959</v>
+        <v>1.343990568854402</v>
       </c>
       <c r="J2">
-        <v>0.07360950530530275</v>
+        <v>0.1849649801769573</v>
       </c>
       <c r="K2">
-        <v>1.078524207238758</v>
+        <v>0.6014323791593483</v>
       </c>
       <c r="L2">
-        <v>0.270057617636013</v>
+        <v>0.3808079546235632</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.117896989836524</v>
+        <v>2.348950722251576</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051196852233176</v>
+        <v>0.8655104710579167</v>
       </c>
       <c r="C3">
-        <v>0.08481271666432377</v>
+        <v>0.04141837103514945</v>
       </c>
       <c r="D3">
-        <v>0.06281157665833348</v>
+        <v>0.1053583587281821</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.06046686476904</v>
+        <v>2.156619209380885</v>
       </c>
       <c r="G3">
-        <v>0.7894727537127295</v>
+        <v>1.479313592385054</v>
       </c>
       <c r="H3">
-        <v>0.5919696075965959</v>
+        <v>1.36933237111856</v>
       </c>
       <c r="I3">
-        <v>0.6214867388014795</v>
+        <v>1.350655206317597</v>
       </c>
       <c r="J3">
-        <v>0.07318277032900511</v>
+        <v>0.1857199811169394</v>
       </c>
       <c r="K3">
-        <v>0.9379048451195615</v>
+        <v>0.564087855340631</v>
       </c>
       <c r="L3">
-        <v>0.2448928568510524</v>
+        <v>0.3761041292347471</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.167383887218161</v>
+        <v>2.370117659928827</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9596375137605833</v>
+        <v>0.8426876459120081</v>
       </c>
       <c r="C4">
-        <v>0.07844332022933997</v>
+        <v>0.03934054963306011</v>
       </c>
       <c r="D4">
-        <v>0.05852161217396912</v>
+        <v>0.1044929233538952</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.04271241121846</v>
+        <v>2.160275204189951</v>
       </c>
       <c r="G4">
-        <v>0.7762021289122032</v>
+        <v>1.481949645443265</v>
       </c>
       <c r="H4">
-        <v>0.5903458174265808</v>
+        <v>1.373627914101277</v>
       </c>
       <c r="I4">
-        <v>0.6203352312023434</v>
+        <v>1.35529283058959</v>
       </c>
       <c r="J4">
-        <v>0.07300195582827484</v>
+        <v>0.1862398218708101</v>
       </c>
       <c r="K4">
-        <v>0.8520755045039721</v>
+        <v>0.5414019027421659</v>
       </c>
       <c r="L4">
-        <v>0.2296898761027535</v>
+        <v>0.3733773079998599</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.199069834847887</v>
+        <v>2.383786024350385</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.922472318089234</v>
+        <v>0.8334852210069243</v>
       </c>
       <c r="C5">
-        <v>0.07584889165492115</v>
+        <v>0.03848883345310128</v>
       </c>
       <c r="D5">
-        <v>0.05678226039727718</v>
+        <v>0.1041491971535109</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.035879932780105</v>
+        <v>2.162000469242713</v>
       </c>
       <c r="G5">
-        <v>0.7711372608784046</v>
+        <v>1.483206078335357</v>
       </c>
       <c r="H5">
-        <v>0.5898883471524243</v>
+        <v>1.375504879375725</v>
       </c>
       <c r="I5">
-        <v>0.6201025766971</v>
+        <v>1.357319962875142</v>
       </c>
       <c r="J5">
-        <v>0.07294813636717734</v>
+        <v>0.1864658353817887</v>
       </c>
       <c r="K5">
-        <v>0.8172104936175799</v>
+        <v>0.532218954883092</v>
       </c>
       <c r="L5">
-        <v>0.223552928005887</v>
+        <v>0.3723068097506967</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.212302056994474</v>
+        <v>2.389524940731482</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9163093715424395</v>
+        <v>0.831963106746997</v>
       </c>
       <c r="C6">
-        <v>0.07541811340566085</v>
+        <v>0.03834710521317675</v>
       </c>
       <c r="D6">
-        <v>0.05649395885279773</v>
+        <v>0.1040926635790527</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.034769204151907</v>
+        <v>2.162301173086</v>
       </c>
       <c r="G6">
-        <v>0.7703164805862741</v>
+        <v>1.483425715057791</v>
       </c>
       <c r="H6">
-        <v>0.5898245048914958</v>
+        <v>1.37582419195283</v>
       </c>
       <c r="I6">
-        <v>0.6200779726774108</v>
+        <v>1.357664859637659</v>
       </c>
       <c r="J6">
-        <v>0.07294038369958855</v>
+        <v>0.1865042215858423</v>
       </c>
       <c r="K6">
-        <v>0.811427404957243</v>
+        <v>0.5306978775978735</v>
       </c>
       <c r="L6">
-        <v>0.2225373048281796</v>
+        <v>0.3721315166039716</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.214518378898287</v>
+        <v>2.390488088110178</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9591357231048221</v>
+        <v>0.8425631409026835</v>
       </c>
       <c r="C7">
-        <v>0.07840832823836053</v>
+        <v>0.0393290832931541</v>
       </c>
       <c r="D7">
-        <v>0.05849811966249518</v>
+        <v>0.1044882514489274</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.042618659381347</v>
+        <v>2.160297518242068</v>
       </c>
       <c r="G7">
-        <v>0.7761324552775335</v>
+        <v>1.481965852276375</v>
       </c>
       <c r="H7">
-        <v>0.5903388306428923</v>
+        <v>1.373652715161242</v>
       </c>
       <c r="I7">
-        <v>0.6203311474626183</v>
+        <v>1.355319613315146</v>
       </c>
       <c r="J7">
-        <v>0.07300115028553833</v>
+        <v>0.1862428125432984</v>
       </c>
       <c r="K7">
-        <v>0.8516048751788219</v>
+        <v>0.541277807596714</v>
       </c>
       <c r="L7">
-        <v>0.229606879847509</v>
+        <v>0.3733627059040572</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.199247002968459</v>
+        <v>2.383862737296434</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.1494489222884</v>
+        <v>0.8901979655090884</v>
       </c>
       <c r="C8">
-        <v>0.0916178689979148</v>
+        <v>0.04361857420049375</v>
       </c>
       <c r="D8">
-        <v>0.06742135104897784</v>
+        <v>0.1063122845329403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.080839933400732</v>
+        <v>2.153522031751407</v>
       </c>
       <c r="G8">
-        <v>0.8048538394790228</v>
+        <v>1.477123416073397</v>
       </c>
       <c r="H8">
-        <v>0.5944217842030497</v>
+        <v>1.365180651504801</v>
       </c>
       <c r="I8">
-        <v>0.6235501379506516</v>
+        <v>1.346175368060067</v>
       </c>
       <c r="J8">
-        <v>0.07344517060558786</v>
+        <v>0.1852136413684811</v>
       </c>
       <c r="K8">
-        <v>1.02992162460572</v>
+        <v>0.5885056707578258</v>
       </c>
       <c r="L8">
-        <v>0.2613267705927314</v>
+        <v>0.3791526647936507</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.134685680776695</v>
+        <v>2.356109670093193</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.528715195371376</v>
+        <v>0.9866615746891227</v>
       </c>
       <c r="C9">
-        <v>0.1176866263796938</v>
+        <v>0.05187380685931942</v>
       </c>
       <c r="D9">
-        <v>0.08524942458878115</v>
+        <v>0.1101676436615548</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.169949459792107</v>
+        <v>2.147649479304732</v>
       </c>
       <c r="G9">
-        <v>0.8733500847661588</v>
+        <v>1.473375201917491</v>
       </c>
       <c r="H9">
-        <v>0.6094778010161122</v>
+        <v>1.35254912558635</v>
       </c>
       <c r="I9">
-        <v>0.6380620214666806</v>
+        <v>1.332568490973287</v>
       </c>
       <c r="J9">
-        <v>0.07498676398741466</v>
+        <v>0.1836408223232233</v>
       </c>
       <c r="K9">
-        <v>1.384512696850692</v>
+        <v>0.68303767119545</v>
       </c>
       <c r="L9">
-        <v>0.3256954927745852</v>
+        <v>0.3917821372305639</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.018739950582056</v>
+        <v>2.307014434897649</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.812392952293749</v>
+        <v>1.05937196354904</v>
       </c>
       <c r="C10">
-        <v>0.1370579465307458</v>
+        <v>0.05784502467405161</v>
       </c>
       <c r="D10">
-        <v>0.09859550954411134</v>
+        <v>0.1131674427970495</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.245350481270648</v>
+        <v>2.147847201670288</v>
       </c>
       <c r="G10">
-        <v>0.9323032224929904</v>
+        <v>1.474126734856284</v>
       </c>
       <c r="H10">
-        <v>0.6253779422583534</v>
+        <v>1.345690061234535</v>
       </c>
       <c r="I10">
-        <v>0.6543768070335361</v>
+        <v>1.325204325092926</v>
       </c>
       <c r="J10">
-        <v>0.0765676737297234</v>
+        <v>0.182755410505429</v>
       </c>
       <c r="K10">
-        <v>1.649313653143167</v>
+        <v>0.7536463492499763</v>
       </c>
       <c r="L10">
-        <v>0.3746015587869493</v>
+        <v>0.4018334262373884</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9405463273316279</v>
+        <v>2.27418886012422</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.942857932842713</v>
+        <v>1.092844885654642</v>
       </c>
       <c r="C11">
-        <v>0.1459465667938531</v>
+        <v>0.06054144074717271</v>
       </c>
       <c r="D11">
-        <v>0.1047320095142936</v>
+        <v>0.1145679495678849</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.282119817465841</v>
+        <v>2.148915546162044</v>
       </c>
       <c r="G11">
-        <v>0.9612848585330198</v>
+        <v>1.475230229271531</v>
       </c>
       <c r="H11">
-        <v>0.6337914271869067</v>
+        <v>1.343094196750371</v>
       </c>
       <c r="I11">
-        <v>0.6631824993623709</v>
+        <v>1.322425136950748</v>
       </c>
       <c r="J11">
-        <v>0.07739356609884851</v>
+        <v>0.1824109861601393</v>
       </c>
       <c r="K11">
-        <v>1.771017899267576</v>
+        <v>0.7860166966557074</v>
       </c>
       <c r="L11">
-        <v>0.3972709518126436</v>
+        <v>0.4065727507695414</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9066103202894027</v>
+        <v>2.259959434796869</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.99249386917387</v>
+        <v>1.105576711917934</v>
       </c>
       <c r="C12">
-        <v>0.149326030036633</v>
+        <v>0.06155965395076635</v>
       </c>
       <c r="D12">
-        <v>0.1070661084696241</v>
+        <v>0.115103395295364</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.296426293435999</v>
+        <v>2.149460634805635</v>
       </c>
       <c r="G12">
-        <v>0.972596486416009</v>
+        <v>1.475757616162284</v>
       </c>
       <c r="H12">
-        <v>0.6371587934254421</v>
+        <v>1.342186502456457</v>
       </c>
       <c r="I12">
-        <v>0.6667300487366035</v>
+        <v>1.321454745327586</v>
       </c>
       <c r="J12">
-        <v>0.07772249215348737</v>
+        <v>0.1822889289368526</v>
       </c>
       <c r="K12">
-        <v>1.817310530646722</v>
+        <v>0.7983100965282972</v>
       </c>
       <c r="L12">
-        <v>0.4059221201260925</v>
+        <v>0.40839130337028</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8940055513891565</v>
+        <v>2.254672211811016</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.98179311474064</v>
+        <v>1.1028321895555</v>
       </c>
       <c r="C13">
-        <v>0.1485975575241838</v>
+        <v>0.06134049070993797</v>
       </c>
       <c r="D13">
-        <v>0.1065629427818209</v>
+        <v>0.1149878513524669</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.293327653329754</v>
+        <v>2.149336992699233</v>
       </c>
       <c r="G13">
-        <v>0.9701449094001049</v>
+        <v>1.475639163170996</v>
       </c>
       <c r="H13">
-        <v>0.6364253103864996</v>
+        <v>1.342378643093653</v>
       </c>
       <c r="I13">
-        <v>0.6659563121127192</v>
+        <v>1.321660089236069</v>
       </c>
       <c r="J13">
-        <v>0.07765091863798546</v>
+        <v>0.1823148442946056</v>
       </c>
       <c r="K13">
-        <v>1.807330978206949</v>
+        <v>0.7956609243491073</v>
       </c>
       <c r="L13">
-        <v>0.4040558649339943</v>
+        <v>0.4079985858758874</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8967090864323062</v>
+        <v>2.255806410345947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.946936701902359</v>
+        <v>1.093891215041111</v>
       </c>
       <c r="C14">
-        <v>0.1462243107205978</v>
+        <v>0.06062526708002736</v>
       </c>
       <c r="D14">
-        <v>0.1049238243345911</v>
+        <v>0.1146118990329512</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.283288983612778</v>
+        <v>2.148957575437237</v>
       </c>
       <c r="G14">
-        <v>0.9622085661643212</v>
+        <v>1.475271422826452</v>
       </c>
       <c r="H14">
-        <v>0.6340647580140768</v>
+        <v>1.343018011567892</v>
       </c>
       <c r="I14">
-        <v>0.66347000515659</v>
+        <v>1.322343658624121</v>
       </c>
       <c r="J14">
-        <v>0.0774202978327736</v>
+        <v>0.1824007768434441</v>
       </c>
       <c r="K14">
-        <v>1.774822134731409</v>
+        <v>0.7870273744940448</v>
       </c>
       <c r="L14">
-        <v>0.3979813140520037</v>
+        <v>0.40672188649188</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.905568321045461</v>
+        <v>2.259522424268088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.925617171658274</v>
+        <v>1.088421929357281</v>
       </c>
       <c r="C15">
-        <v>0.1447724700947646</v>
+        <v>0.06018679946673444</v>
       </c>
       <c r="D15">
-        <v>0.1039211928327575</v>
+        <v>0.1143822804485808</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.277190707134054</v>
+        <v>2.148743467711668</v>
       </c>
       <c r="G15">
-        <v>0.9573920008307653</v>
+        <v>1.475060433597136</v>
       </c>
       <c r="H15">
-        <v>0.6326428298721822</v>
+        <v>1.343419447008813</v>
       </c>
       <c r="I15">
-        <v>0.6619752456750234</v>
+        <v>1.322773045282084</v>
       </c>
       <c r="J15">
-        <v>0.07728116851354727</v>
+        <v>0.1824545022121775</v>
       </c>
       <c r="K15">
-        <v>1.754937172357728</v>
+        <v>0.7817436775646911</v>
       </c>
       <c r="L15">
-        <v>0.3942693594572546</v>
+        <v>0.4059429763150035</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9110272426922101</v>
+        <v>2.261811764479607</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.803897624257047</v>
+        <v>1.057192352407839</v>
       </c>
       <c r="C16">
-        <v>0.1364788056716293</v>
+        <v>0.05766840698929343</v>
       </c>
       <c r="D16">
-        <v>0.09819586845968331</v>
+        <v>0.1130766336780624</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.242999522608883</v>
+        <v>2.147797056803142</v>
       </c>
       <c r="G16">
-        <v>0.930454902671201</v>
+        <v>1.474069944405258</v>
       </c>
       <c r="H16">
-        <v>0.6248528280918038</v>
+        <v>1.345870250041614</v>
       </c>
       <c r="I16">
-        <v>0.653830358368765</v>
+        <v>1.325397432980239</v>
       </c>
       <c r="J16">
-        <v>0.07651591710938632</v>
+        <v>0.1827790917570944</v>
       </c>
       <c r="K16">
-        <v>1.641387295342639</v>
+        <v>0.7515358598305966</v>
       </c>
       <c r="L16">
-        <v>0.3731290601698589</v>
+        <v>0.4015270481853861</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9427979406683633</v>
+        <v>2.275132938564862</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.729609009719297</v>
+        <v>1.038135118191292</v>
       </c>
       <c r="C17">
-        <v>0.1314122444539123</v>
+        <v>0.05611835513019514</v>
       </c>
       <c r="D17">
-        <v>0.0947009465521802</v>
+        <v>0.1122848124968385</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.222675786928122</v>
+        <v>2.147466939820688</v>
       </c>
       <c r="G17">
-        <v>0.9145017676452483</v>
+        <v>1.473657378358837</v>
       </c>
       <c r="H17">
-        <v>0.6203842493481488</v>
+        <v>1.347507968425219</v>
       </c>
       <c r="I17">
-        <v>0.64919786168862</v>
+        <v>1.327153568143039</v>
       </c>
       <c r="J17">
-        <v>0.07607436930085498</v>
+        <v>0.1829931467795873</v>
       </c>
       <c r="K17">
-        <v>1.572065459654652</v>
+        <v>0.7330680351450951</v>
       </c>
       <c r="L17">
-        <v>0.3602724086635192</v>
+        <v>0.3988606827630576</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.962714486016619</v>
+        <v>2.283485159320012</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.687011906765349</v>
+        <v>1.027211271377524</v>
       </c>
       <c r="C18">
-        <v>0.1285051301566966</v>
+        <v>0.05522493104628268</v>
       </c>
       <c r="D18">
-        <v>0.09269684536512557</v>
+        <v>0.1118327587095251</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.211216736046666</v>
+        <v>2.147369166543115</v>
       </c>
       <c r="G18">
-        <v>0.9055279377009526</v>
+        <v>1.4734917685075</v>
       </c>
       <c r="H18">
-        <v>0.617924403943249</v>
+        <v>1.348499301644438</v>
       </c>
       <c r="I18">
-        <v>0.6466627453704206</v>
+        <v>1.32821738100246</v>
       </c>
       <c r="J18">
-        <v>0.07583039541182046</v>
+        <v>0.1831217594482908</v>
       </c>
       <c r="K18">
-        <v>1.532308830512221</v>
+        <v>0.722469402644947</v>
       </c>
       <c r="L18">
-        <v>0.3529169113325707</v>
+        <v>0.3973427812789367</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.974323113854453</v>
+        <v>2.288355311194493</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.672611076168067</v>
+        <v>1.023519083455909</v>
       </c>
       <c r="C19">
-        <v>0.1275219661317806</v>
+        <v>0.05492211081771359</v>
       </c>
       <c r="D19">
-        <v>0.09201930848316664</v>
+        <v>0.1116802834213573</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.207375697269001</v>
+        <v>2.147351885655738</v>
       </c>
       <c r="G19">
-        <v>0.902523489926196</v>
+        <v>1.473448008286226</v>
       </c>
       <c r="H19">
-        <v>0.6171101573847864</v>
+        <v>1.348843430855794</v>
       </c>
       <c r="I19">
-        <v>0.6458262081901864</v>
+        <v>1.328586799686349</v>
       </c>
       <c r="J19">
-        <v>0.07574948191295761</v>
+        <v>0.1831662497527127</v>
       </c>
       <c r="K19">
-        <v>1.51886696360333</v>
+        <v>0.7188849518999803</v>
       </c>
       <c r="L19">
-        <v>0.3504330385635512</v>
+        <v>0.3968315501312105</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9782795786555383</v>
+        <v>2.290015625234926</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.737503330574441</v>
+        <v>1.040159930505666</v>
       </c>
       <c r="C20">
-        <v>0.1319508424825102</v>
+        <v>0.05628355485235659</v>
       </c>
       <c r="D20">
-        <v>0.09507235047033191</v>
+        <v>0.1123687537172131</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.224815220412196</v>
+        <v>2.147492550380079</v>
       </c>
       <c r="G20">
-        <v>0.9161789199353194</v>
+        <v>1.473693877375212</v>
       </c>
       <c r="H20">
-        <v>0.62084843362085</v>
+        <v>1.347328522553781</v>
       </c>
       <c r="I20">
-        <v>0.6496775110074537</v>
+        <v>1.326961064063838</v>
       </c>
       <c r="J20">
-        <v>0.07612033277205654</v>
+        <v>0.1829697918237585</v>
       </c>
       <c r="K20">
-        <v>1.579432749976519</v>
+        <v>0.7350315307329254</v>
       </c>
       <c r="L20">
-        <v>0.3616369100192287</v>
+        <v>0.3991428957737071</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9605784074152659</v>
+        <v>2.282589201917208</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.957168356451575</v>
+        <v>1.096515871840495</v>
       </c>
       <c r="C21">
-        <v>0.1469210022280407</v>
+        <v>0.06083542321761115</v>
       </c>
       <c r="D21">
-        <v>0.1054049846315621</v>
+        <v>0.1147221872588915</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.286226966409075</v>
+        <v>2.149065206840945</v>
       </c>
       <c r="G21">
-        <v>0.9645303037551969</v>
+        <v>1.475376464822745</v>
       </c>
       <c r="H21">
-        <v>0.634753090429669</v>
+        <v>1.342828170622511</v>
       </c>
       <c r="I21">
-        <v>0.6641943956101741</v>
+        <v>1.322140651979652</v>
       </c>
       <c r="J21">
-        <v>0.07748759075910883</v>
+        <v>0.1823753094220031</v>
       </c>
       <c r="K21">
-        <v>1.784364958472736</v>
+        <v>0.7895622993034976</v>
       </c>
       <c r="L21">
-        <v>0.3997636941002867</v>
+        <v>0.4070962371943097</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9029593793770481</v>
+        <v>2.258428195281898</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.102096943314621</v>
+        <v>1.133675917322932</v>
       </c>
       <c r="C22">
-        <v>0.1567850961902053</v>
+        <v>0.06379365754661137</v>
       </c>
       <c r="D22">
-        <v>0.1122187164561694</v>
+        <v>0.1162900175810648</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.328608260396734</v>
+        <v>2.150912068764313</v>
       </c>
       <c r="G22">
-        <v>0.9981078881814227</v>
+        <v>1.477114484003621</v>
       </c>
       <c r="H22">
-        <v>0.6449037370126405</v>
+        <v>1.340325810277534</v>
       </c>
       <c r="I22">
-        <v>0.6749309470817266</v>
+        <v>1.319468322951913</v>
       </c>
       <c r="J22">
-        <v>0.07847590231006762</v>
+        <v>0.1820355502646827</v>
       </c>
       <c r="K22">
-        <v>1.91951397289597</v>
+        <v>0.8254077111070046</v>
       </c>
       <c r="L22">
-        <v>0.4250740502448451</v>
+        <v>0.4124332955654211</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.866741945283902</v>
+        <v>2.243227193827774</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.024611245307653</v>
+        <v>1.113813095721525</v>
       </c>
       <c r="C23">
-        <v>0.1515122087972003</v>
+        <v>0.06221631680973871</v>
       </c>
       <c r="D23">
-        <v>0.108576208215112</v>
+        <v>0.1154505355336113</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.305773445627807</v>
+        <v>2.149851475204969</v>
       </c>
       <c r="G23">
-        <v>0.9799969567538938</v>
+        <v>1.476128461963484</v>
       </c>
       <c r="H23">
-        <v>0.6393847977607692</v>
+        <v>1.341621241960581</v>
       </c>
       <c r="I23">
-        <v>0.6690814697854179</v>
+        <v>1.320850868015555</v>
       </c>
       <c r="J23">
-        <v>0.07793946402147967</v>
+        <v>0.1822124310904556</v>
       </c>
       <c r="K23">
-        <v>1.847261904093671</v>
+        <v>0.8062576239622672</v>
       </c>
       <c r="L23">
-        <v>0.4115274042207062</v>
+        <v>0.4095721242197641</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8859362676135731</v>
+        <v>2.251286288203833</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.733933960049171</v>
+        <v>1.039244411850348</v>
       </c>
       <c r="C24">
-        <v>0.1317073246884775</v>
+        <v>0.05620887515546258</v>
       </c>
       <c r="D24">
-        <v>0.09490442270796962</v>
+        <v>0.1123307939985807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.22384728273326</v>
+        <v>2.147480685208919</v>
       </c>
       <c r="G24">
-        <v>0.9154200650854136</v>
+        <v>1.473677153200285</v>
       </c>
       <c r="H24">
-        <v>0.620638236645533</v>
+        <v>1.347409494937509</v>
       </c>
       <c r="I24">
-        <v>0.6494602633833892</v>
+        <v>1.327047926360862</v>
       </c>
       <c r="J24">
-        <v>0.07609952198163583</v>
+        <v>0.1829803333110682</v>
       </c>
       <c r="K24">
-        <v>1.576101696593213</v>
+        <v>0.734143775885741</v>
       </c>
       <c r="L24">
-        <v>0.3610199073965106</v>
+        <v>0.3990152604536235</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9615436361774421</v>
+        <v>2.282994051352915</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.425332177706764</v>
+        <v>0.9602411579113834</v>
       </c>
       <c r="C25">
-        <v>0.110605027303734</v>
+        <v>0.04965714377040342</v>
       </c>
       <c r="D25">
-        <v>0.08038651559625976</v>
+        <v>0.1090951147737371</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.144198136211642</v>
+        <v>2.148445211611801</v>
       </c>
       <c r="G25">
-        <v>0.8533969673347457</v>
+        <v>1.473773716584518</v>
       </c>
       <c r="H25">
-        <v>0.604596427131554</v>
+        <v>1.355540626963176</v>
       </c>
       <c r="I25">
-        <v>0.6331934344974002</v>
+        <v>1.33578689167274</v>
       </c>
       <c r="J25">
-        <v>0.07449399207307295</v>
+        <v>0.1840187732844321</v>
       </c>
       <c r="K25">
-        <v>1.287932824081793</v>
+        <v>0.6572602814439392</v>
       </c>
       <c r="L25">
-        <v>0.3080209702700074</v>
+        <v>0.3882295187404026</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.048916353801708</v>
+        <v>2.31972594193947</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9033119704407397</v>
+        <v>1.201378112940631</v>
       </c>
       <c r="C2">
-        <v>0.04477016915814147</v>
+        <v>0.09520407332375669</v>
       </c>
       <c r="D2">
-        <v>0.1068254417072581</v>
+        <v>0.06985977539188326</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.1521882487867</v>
+        <v>1.092108762494561</v>
       </c>
       <c r="G2">
-        <v>1.476200289105861</v>
+        <v>0.8134177042805248</v>
       </c>
       <c r="H2">
-        <v>1.363154875329542</v>
+        <v>0.5959863029713262</v>
       </c>
       <c r="I2">
-        <v>1.343990568854402</v>
+        <v>0.624954424520503</v>
       </c>
       <c r="J2">
-        <v>0.1849649801769573</v>
+        <v>0.07360950530542709</v>
       </c>
       <c r="K2">
-        <v>0.6014323791593483</v>
+        <v>1.078524207238729</v>
       </c>
       <c r="L2">
-        <v>0.3808079546235632</v>
+        <v>0.2700576176359704</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.348950722251576</v>
+        <v>1.117896989836531</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8655104710579167</v>
+        <v>1.05119685223309</v>
       </c>
       <c r="C3">
-        <v>0.04141837103514945</v>
+        <v>0.08481271666435219</v>
       </c>
       <c r="D3">
-        <v>0.1053583587281821</v>
+        <v>0.06281157665839743</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.156619209380885</v>
+        <v>1.06046686476904</v>
       </c>
       <c r="G3">
-        <v>1.479313592385054</v>
+        <v>0.7894727537128006</v>
       </c>
       <c r="H3">
-        <v>1.36933237111856</v>
+        <v>0.5919696075965959</v>
       </c>
       <c r="I3">
-        <v>1.350655206317597</v>
+        <v>0.621486738801508</v>
       </c>
       <c r="J3">
-        <v>0.1857199811169394</v>
+        <v>0.07318277032895182</v>
       </c>
       <c r="K3">
-        <v>0.564087855340631</v>
+        <v>0.9379048451195331</v>
       </c>
       <c r="L3">
-        <v>0.3761041292347471</v>
+        <v>0.244892856851024</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.370117659928827</v>
+        <v>1.167383887218172</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8426876459120081</v>
+        <v>0.9596375137604127</v>
       </c>
       <c r="C4">
-        <v>0.03934054963306011</v>
+        <v>0.07844332022958156</v>
       </c>
       <c r="D4">
-        <v>0.1044929233538952</v>
+        <v>0.05852161217409702</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.160275204189951</v>
+        <v>1.042712411218439</v>
       </c>
       <c r="G4">
-        <v>1.481949645443265</v>
+        <v>0.7762021289121606</v>
       </c>
       <c r="H4">
-        <v>1.373627914101277</v>
+        <v>0.5903458174265808</v>
       </c>
       <c r="I4">
-        <v>1.35529283058959</v>
+        <v>0.6203352312023362</v>
       </c>
       <c r="J4">
-        <v>0.1862398218708101</v>
+        <v>0.07300195582831037</v>
       </c>
       <c r="K4">
-        <v>0.5414019027421659</v>
+        <v>0.8520755045041426</v>
       </c>
       <c r="L4">
-        <v>0.3733773079998599</v>
+        <v>0.2296898761028245</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.383786024350385</v>
+        <v>1.199069834847855</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8334852210069243</v>
+        <v>0.9224723180893193</v>
       </c>
       <c r="C5">
-        <v>0.03848883345310128</v>
+        <v>0.07584889165491404</v>
       </c>
       <c r="D5">
-        <v>0.1041491971535109</v>
+        <v>0.05678226039715639</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.162000469242713</v>
+        <v>1.035879932780098</v>
       </c>
       <c r="G5">
-        <v>1.483206078335357</v>
+        <v>0.771137260878433</v>
       </c>
       <c r="H5">
-        <v>1.375504879375725</v>
+        <v>0.5898883471524101</v>
       </c>
       <c r="I5">
-        <v>1.357319962875142</v>
+        <v>0.6201025766971107</v>
       </c>
       <c r="J5">
-        <v>0.1864658353817887</v>
+        <v>0.07294813636700681</v>
       </c>
       <c r="K5">
-        <v>0.532218954883092</v>
+        <v>0.8172104936175799</v>
       </c>
       <c r="L5">
-        <v>0.3723068097506967</v>
+        <v>0.2235529280058444</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.389524940731482</v>
+        <v>1.212302056994435</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.831963106746997</v>
+        <v>0.9163093715425816</v>
       </c>
       <c r="C6">
-        <v>0.03834710521317675</v>
+        <v>0.07541811340552584</v>
       </c>
       <c r="D6">
-        <v>0.1040926635790527</v>
+        <v>0.05649395885267694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.162301173086</v>
+        <v>1.034769204151921</v>
       </c>
       <c r="G6">
-        <v>1.483425715057791</v>
+        <v>0.7703164805862599</v>
       </c>
       <c r="H6">
-        <v>1.37582419195283</v>
+        <v>0.5898245048913822</v>
       </c>
       <c r="I6">
-        <v>1.357664859637659</v>
+        <v>0.6200779726774428</v>
       </c>
       <c r="J6">
-        <v>0.1865042215858423</v>
+        <v>0.07294038369972711</v>
       </c>
       <c r="K6">
-        <v>0.5306978775978735</v>
+        <v>0.811427404957243</v>
       </c>
       <c r="L6">
-        <v>0.3721315166039716</v>
+        <v>0.2225373048281938</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.390488088110178</v>
+        <v>1.214518378898287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8425631409026835</v>
+        <v>0.9591357231048505</v>
       </c>
       <c r="C7">
-        <v>0.0393290832931541</v>
+        <v>0.07840832823882238</v>
       </c>
       <c r="D7">
-        <v>0.1044882514489274</v>
+        <v>0.05849811966249518</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.160297518242068</v>
+        <v>1.042618659381333</v>
       </c>
       <c r="G7">
-        <v>1.481965852276375</v>
+        <v>0.7761324552775335</v>
       </c>
       <c r="H7">
-        <v>1.373652715161242</v>
+        <v>0.5903388306428639</v>
       </c>
       <c r="I7">
-        <v>1.355319613315146</v>
+        <v>0.6203311474626041</v>
       </c>
       <c r="J7">
-        <v>0.1862428125432984</v>
+        <v>0.07300115028553478</v>
       </c>
       <c r="K7">
-        <v>0.541277807596714</v>
+        <v>0.8516048751788219</v>
       </c>
       <c r="L7">
-        <v>0.3733627059040572</v>
+        <v>0.229606879847509</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.383862737296434</v>
+        <v>1.199247002968431</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8901979655090884</v>
+        <v>1.149448922288343</v>
       </c>
       <c r="C8">
-        <v>0.04361857420049375</v>
+        <v>0.09161786899775848</v>
       </c>
       <c r="D8">
-        <v>0.1063122845329403</v>
+        <v>0.06742135104909863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.153522031751407</v>
+        <v>1.080839933400739</v>
       </c>
       <c r="G8">
-        <v>1.477123416073397</v>
+        <v>0.8048538394790228</v>
       </c>
       <c r="H8">
-        <v>1.365180651504801</v>
+        <v>0.5944217842029218</v>
       </c>
       <c r="I8">
-        <v>1.346175368060067</v>
+        <v>0.6235501379506303</v>
       </c>
       <c r="J8">
-        <v>0.1852136413684811</v>
+        <v>0.07344517060564115</v>
       </c>
       <c r="K8">
-        <v>0.5885056707578258</v>
+        <v>1.02992162460572</v>
       </c>
       <c r="L8">
-        <v>0.3791526647936507</v>
+        <v>0.2613267705927456</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.356109670093193</v>
+        <v>1.134685680776688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9866615746891227</v>
+        <v>1.528715195371575</v>
       </c>
       <c r="C9">
-        <v>0.05187380685931942</v>
+        <v>0.1176866263796654</v>
       </c>
       <c r="D9">
-        <v>0.1101676436615548</v>
+        <v>0.08524942458877405</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.147649479304732</v>
+        <v>1.16994945979215</v>
       </c>
       <c r="G9">
-        <v>1.473375201917491</v>
+        <v>0.8733500847661162</v>
       </c>
       <c r="H9">
-        <v>1.35254912558635</v>
+        <v>0.6094778010162258</v>
       </c>
       <c r="I9">
-        <v>1.332568490973287</v>
+        <v>0.638062021466709</v>
       </c>
       <c r="J9">
-        <v>0.1836408223232233</v>
+        <v>0.07498676398740045</v>
       </c>
       <c r="K9">
-        <v>0.68303767119545</v>
+        <v>1.38451269685072</v>
       </c>
       <c r="L9">
-        <v>0.3917821372305639</v>
+        <v>0.3256954927746278</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.307014434897649</v>
+        <v>1.018739950582063</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05937196354904</v>
+        <v>1.812392952293607</v>
       </c>
       <c r="C10">
-        <v>0.05784502467405161</v>
+        <v>0.1370579465306179</v>
       </c>
       <c r="D10">
-        <v>0.1131674427970495</v>
+        <v>0.09859550954429608</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.147847201670288</v>
+        <v>1.245350481270648</v>
       </c>
       <c r="G10">
-        <v>1.474126734856284</v>
+        <v>0.9323032224929904</v>
       </c>
       <c r="H10">
-        <v>1.345690061234535</v>
+        <v>0.6253779422583392</v>
       </c>
       <c r="I10">
-        <v>1.325204325092926</v>
+        <v>0.6543768070335219</v>
       </c>
       <c r="J10">
-        <v>0.182755410505429</v>
+        <v>0.07656767372976248</v>
       </c>
       <c r="K10">
-        <v>0.7536463492499763</v>
+        <v>1.649313653143224</v>
       </c>
       <c r="L10">
-        <v>0.4018334262373884</v>
+        <v>0.3746015587869209</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.27418886012422</v>
+        <v>0.9405463273316137</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.092844885654642</v>
+        <v>1.942857932842685</v>
       </c>
       <c r="C11">
-        <v>0.06054144074717271</v>
+        <v>0.1459465667937394</v>
       </c>
       <c r="D11">
-        <v>0.1145679495678849</v>
+        <v>0.1047320095144784</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.148915546162044</v>
+        <v>1.282119817465855</v>
       </c>
       <c r="G11">
-        <v>1.475230229271531</v>
+        <v>0.9612848585329772</v>
       </c>
       <c r="H11">
-        <v>1.343094196750371</v>
+        <v>0.6337914271869209</v>
       </c>
       <c r="I11">
-        <v>1.322425136950748</v>
+        <v>0.6631824993623923</v>
       </c>
       <c r="J11">
-        <v>0.1824109861601393</v>
+        <v>0.07739356609879877</v>
       </c>
       <c r="K11">
-        <v>0.7860166966557074</v>
+        <v>1.771017899267633</v>
       </c>
       <c r="L11">
-        <v>0.4065727507695414</v>
+        <v>0.397270951812601</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.259959434796869</v>
+        <v>0.9066103202894702</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.105576711917934</v>
+        <v>1.992493869174041</v>
       </c>
       <c r="C12">
-        <v>0.06155965395076635</v>
+        <v>0.1493260300366472</v>
       </c>
       <c r="D12">
-        <v>0.115103395295364</v>
+        <v>0.1070661084696241</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.149460634805635</v>
+        <v>1.296426293436014</v>
       </c>
       <c r="G12">
-        <v>1.475757616162284</v>
+        <v>0.9725964864159522</v>
       </c>
       <c r="H12">
-        <v>1.342186502456457</v>
+        <v>0.6371587934254421</v>
       </c>
       <c r="I12">
-        <v>1.321454745327586</v>
+        <v>0.6667300487366177</v>
       </c>
       <c r="J12">
-        <v>0.1822889289368526</v>
+        <v>0.07772249215354066</v>
       </c>
       <c r="K12">
-        <v>0.7983100965282972</v>
+        <v>1.817310530646637</v>
       </c>
       <c r="L12">
-        <v>0.40839130337028</v>
+        <v>0.4059221201260499</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.254672211811016</v>
+        <v>0.8940055513890997</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.1028321895555</v>
+        <v>1.98179311474081</v>
       </c>
       <c r="C13">
-        <v>0.06134049070993797</v>
+        <v>0.1485975575244112</v>
       </c>
       <c r="D13">
-        <v>0.1149878513524669</v>
+        <v>0.1065629427819204</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.149336992699233</v>
+        <v>1.293327653329754</v>
       </c>
       <c r="G13">
-        <v>1.475639163170996</v>
+        <v>0.9701449094000765</v>
       </c>
       <c r="H13">
-        <v>1.342378643093653</v>
+        <v>0.6364253103864854</v>
       </c>
       <c r="I13">
-        <v>1.321660089236069</v>
+        <v>0.6659563121127121</v>
       </c>
       <c r="J13">
-        <v>0.1823148442946056</v>
+        <v>0.07765091863797835</v>
       </c>
       <c r="K13">
-        <v>0.7956609243491073</v>
+        <v>1.80733097820675</v>
       </c>
       <c r="L13">
-        <v>0.4079985858758874</v>
+        <v>0.4040558649339232</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.255806410345947</v>
+        <v>0.8967090864322991</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.093891215041111</v>
+        <v>1.946936701902388</v>
       </c>
       <c r="C14">
-        <v>0.06062526708002736</v>
+        <v>0.1462243107204699</v>
       </c>
       <c r="D14">
-        <v>0.1146118990329512</v>
+        <v>0.1049238243347759</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.148957575437237</v>
+        <v>1.283288983612792</v>
       </c>
       <c r="G14">
-        <v>1.475271422826452</v>
+        <v>0.9622085661643069</v>
       </c>
       <c r="H14">
-        <v>1.343018011567892</v>
+        <v>0.6340647580140484</v>
       </c>
       <c r="I14">
-        <v>1.322343658624121</v>
+        <v>0.6634700051565758</v>
       </c>
       <c r="J14">
-        <v>0.1824007768434441</v>
+        <v>0.07742029783270254</v>
       </c>
       <c r="K14">
-        <v>0.7870273744940448</v>
+        <v>1.774822134731465</v>
       </c>
       <c r="L14">
-        <v>0.40672188649188</v>
+        <v>0.3979813140519894</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.259522424268088</v>
+        <v>0.9055683210454433</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.088421929357281</v>
+        <v>1.925617171658274</v>
       </c>
       <c r="C15">
-        <v>0.06018679946673444</v>
+        <v>0.1447724700948925</v>
       </c>
       <c r="D15">
-        <v>0.1143822804485808</v>
+        <v>0.1039211928327717</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.148743467711668</v>
+        <v>1.277190707134054</v>
       </c>
       <c r="G15">
-        <v>1.475060433597136</v>
+        <v>0.9573920008307653</v>
       </c>
       <c r="H15">
-        <v>1.343419447008813</v>
+        <v>0.6326428298721822</v>
       </c>
       <c r="I15">
-        <v>1.322773045282084</v>
+        <v>0.6619752456750092</v>
       </c>
       <c r="J15">
-        <v>0.1824545022121775</v>
+        <v>0.07728116851353661</v>
       </c>
       <c r="K15">
-        <v>0.7817436775646911</v>
+        <v>1.7549371723577</v>
       </c>
       <c r="L15">
-        <v>0.4059429763150035</v>
+        <v>0.3942693594572404</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.261811764479607</v>
+        <v>0.9110272426921924</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.057192352407839</v>
+        <v>1.803897624257104</v>
       </c>
       <c r="C16">
-        <v>0.05766840698929343</v>
+        <v>0.1364788056715014</v>
       </c>
       <c r="D16">
-        <v>0.1130766336780624</v>
+        <v>0.09819586845972594</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.147797056803142</v>
+        <v>1.242999522608898</v>
       </c>
       <c r="G16">
-        <v>1.474069944405258</v>
+        <v>0.9304549026712579</v>
       </c>
       <c r="H16">
-        <v>1.345870250041614</v>
+        <v>0.6248528280919601</v>
       </c>
       <c r="I16">
-        <v>1.325397432980239</v>
+        <v>0.6538303583687863</v>
       </c>
       <c r="J16">
-        <v>0.1827790917570944</v>
+        <v>0.07651591710934014</v>
       </c>
       <c r="K16">
-        <v>0.7515358598305966</v>
+        <v>1.641387295342668</v>
       </c>
       <c r="L16">
-        <v>0.4015270481853861</v>
+        <v>0.3731290601699015</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.275132938564862</v>
+        <v>0.9427979406683775</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.038135118191292</v>
+        <v>1.729609009719269</v>
       </c>
       <c r="C17">
-        <v>0.05611835513019514</v>
+        <v>0.1314122444536991</v>
       </c>
       <c r="D17">
-        <v>0.1122848124968385</v>
+        <v>0.09470094655235073</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.147466939820688</v>
+        <v>1.222675786928122</v>
       </c>
       <c r="G17">
-        <v>1.473657378358837</v>
+        <v>0.9145017676452056</v>
       </c>
       <c r="H17">
-        <v>1.347507968425219</v>
+        <v>0.6203842493481631</v>
       </c>
       <c r="I17">
-        <v>1.327153568143039</v>
+        <v>0.64919786168862</v>
       </c>
       <c r="J17">
-        <v>0.1829931467795873</v>
+        <v>0.07607436930090117</v>
       </c>
       <c r="K17">
-        <v>0.7330680351450951</v>
+        <v>1.572065459654596</v>
       </c>
       <c r="L17">
-        <v>0.3988606827630576</v>
+        <v>0.3602724086634339</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.283485159320012</v>
+        <v>0.9627144860166155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.027211271377524</v>
+        <v>1.687011906765292</v>
       </c>
       <c r="C18">
-        <v>0.05522493104628268</v>
+        <v>0.1285051301565829</v>
       </c>
       <c r="D18">
-        <v>0.1118327587095251</v>
+        <v>0.09269684536519662</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.147369166543115</v>
+        <v>1.211216736046666</v>
       </c>
       <c r="G18">
-        <v>1.4734917685075</v>
+        <v>0.9055279377009811</v>
       </c>
       <c r="H18">
-        <v>1.348499301644438</v>
+        <v>0.6179244039431211</v>
       </c>
       <c r="I18">
-        <v>1.32821738100246</v>
+        <v>0.6466627453704135</v>
       </c>
       <c r="J18">
-        <v>0.1831217594482908</v>
+        <v>0.07583039541172809</v>
       </c>
       <c r="K18">
-        <v>0.722469402644947</v>
+        <v>1.532308830512164</v>
       </c>
       <c r="L18">
-        <v>0.3973427812789367</v>
+        <v>0.3529169113324997</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.288355311194493</v>
+        <v>0.9743231138544282</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.023519083455909</v>
+        <v>1.672611076168181</v>
       </c>
       <c r="C19">
-        <v>0.05492211081771359</v>
+        <v>0.1275219661319085</v>
       </c>
       <c r="D19">
-        <v>0.1116802834213573</v>
+        <v>0.09201930848307427</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.147351885655738</v>
+        <v>1.207375697268986</v>
       </c>
       <c r="G19">
-        <v>1.473448008286226</v>
+        <v>0.9025234899262671</v>
       </c>
       <c r="H19">
-        <v>1.348843430855794</v>
+        <v>0.6171101573849</v>
       </c>
       <c r="I19">
-        <v>1.328586799686349</v>
+        <v>0.6458262081901864</v>
       </c>
       <c r="J19">
-        <v>0.1831662497527127</v>
+        <v>0.075749481913018</v>
       </c>
       <c r="K19">
-        <v>0.7188849518999803</v>
+        <v>1.518866963603216</v>
       </c>
       <c r="L19">
-        <v>0.3968315501312105</v>
+        <v>0.350433038563537</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.290015625234926</v>
+        <v>0.9782795786555312</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.040159930505666</v>
+        <v>1.737503330574611</v>
       </c>
       <c r="C20">
-        <v>0.05628355485235659</v>
+        <v>0.1319508424825955</v>
       </c>
       <c r="D20">
-        <v>0.1123687537172131</v>
+        <v>0.09507235047027507</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.147492550380079</v>
+        <v>1.224815220412168</v>
       </c>
       <c r="G20">
-        <v>1.473693877375212</v>
+        <v>0.9161789199352768</v>
       </c>
       <c r="H20">
-        <v>1.347328522553781</v>
+        <v>0.62084843362085</v>
       </c>
       <c r="I20">
-        <v>1.326961064063838</v>
+        <v>0.6496775110074822</v>
       </c>
       <c r="J20">
-        <v>0.1829697918237585</v>
+        <v>0.07612033277197128</v>
       </c>
       <c r="K20">
-        <v>0.7350315307329254</v>
+        <v>1.579432749976576</v>
       </c>
       <c r="L20">
-        <v>0.3991428957737071</v>
+        <v>0.3616369100192571</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.282589201917208</v>
+        <v>0.9605784074152091</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.096515871840495</v>
+        <v>1.957168356451746</v>
       </c>
       <c r="C21">
-        <v>0.06083542321761115</v>
+        <v>0.1469210022280265</v>
       </c>
       <c r="D21">
-        <v>0.1147221872588915</v>
+        <v>0.1054049846314626</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.149065206840945</v>
+        <v>1.286226966409075</v>
       </c>
       <c r="G21">
-        <v>1.475376464822745</v>
+        <v>0.96453030375514</v>
       </c>
       <c r="H21">
-        <v>1.342828170622511</v>
+        <v>0.6347530904296832</v>
       </c>
       <c r="I21">
-        <v>1.322140651979652</v>
+        <v>0.664194395610167</v>
       </c>
       <c r="J21">
-        <v>0.1823753094220031</v>
+        <v>0.07748759075917278</v>
       </c>
       <c r="K21">
-        <v>0.7895622993034976</v>
+        <v>1.784364958472651</v>
       </c>
       <c r="L21">
-        <v>0.4070962371943097</v>
+        <v>0.3997636941002725</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.258428195281898</v>
+        <v>0.9029593793770516</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.133675917322932</v>
+        <v>2.102096943314507</v>
       </c>
       <c r="C22">
-        <v>0.06379365754661137</v>
+        <v>0.1567850961902053</v>
       </c>
       <c r="D22">
-        <v>0.1162900175810648</v>
+        <v>0.1122187164562831</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.150912068764313</v>
+        <v>1.328608260396692</v>
       </c>
       <c r="G22">
-        <v>1.477114484003621</v>
+        <v>0.9981078881814227</v>
       </c>
       <c r="H22">
-        <v>1.340325810277534</v>
+        <v>0.6449037370126547</v>
       </c>
       <c r="I22">
-        <v>1.319468322951913</v>
+        <v>0.6749309470817195</v>
       </c>
       <c r="J22">
-        <v>0.1820355502646827</v>
+        <v>0.07847590231011736</v>
       </c>
       <c r="K22">
-        <v>0.8254077111070046</v>
+        <v>1.919513972895942</v>
       </c>
       <c r="L22">
-        <v>0.4124332955654211</v>
+        <v>0.4250740502448735</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.243227193827774</v>
+        <v>0.8667419452838239</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.113813095721525</v>
+        <v>2.024611245307597</v>
       </c>
       <c r="C23">
-        <v>0.06221631680973871</v>
+        <v>0.1515122087971861</v>
       </c>
       <c r="D23">
-        <v>0.1154505355336113</v>
+        <v>0.1085762082152257</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.149851475204969</v>
+        <v>1.305773445627807</v>
       </c>
       <c r="G23">
-        <v>1.476128461963484</v>
+        <v>0.9799969567539222</v>
       </c>
       <c r="H23">
-        <v>1.341621241960581</v>
+        <v>0.6393847977607834</v>
       </c>
       <c r="I23">
-        <v>1.320850868015555</v>
+        <v>0.6690814697854108</v>
       </c>
       <c r="J23">
-        <v>0.1822124310904556</v>
+        <v>0.07793946402163243</v>
       </c>
       <c r="K23">
-        <v>0.8062576239622672</v>
+        <v>1.847261904093614</v>
       </c>
       <c r="L23">
-        <v>0.4095721242197641</v>
+        <v>0.4115274042208057</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.251286288203833</v>
+        <v>0.8859362676136016</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.039244411850348</v>
+        <v>1.733933960048944</v>
       </c>
       <c r="C24">
-        <v>0.05620887515546258</v>
+        <v>0.1317073246883496</v>
       </c>
       <c r="D24">
-        <v>0.1123307939985807</v>
+        <v>0.09490442270794119</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.147480685208919</v>
+        <v>1.223847282733288</v>
       </c>
       <c r="G24">
-        <v>1.473677153200285</v>
+        <v>0.9154200650854705</v>
       </c>
       <c r="H24">
-        <v>1.347409494937509</v>
+        <v>0.6206382366455472</v>
       </c>
       <c r="I24">
-        <v>1.327047926360862</v>
+        <v>0.6494602633834035</v>
       </c>
       <c r="J24">
-        <v>0.1829803333110682</v>
+        <v>0.07609952198158965</v>
       </c>
       <c r="K24">
-        <v>0.734143775885741</v>
+        <v>1.576101696593156</v>
       </c>
       <c r="L24">
-        <v>0.3990152604536235</v>
+        <v>0.3610199073965674</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.282994051352915</v>
+        <v>0.9615436361774599</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9602411579113834</v>
+        <v>1.425332177706849</v>
       </c>
       <c r="C25">
-        <v>0.04965714377040342</v>
+        <v>0.110605027303734</v>
       </c>
       <c r="D25">
-        <v>0.1090951147737371</v>
+        <v>0.08038651559635923</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.148445211611801</v>
+        <v>1.144198136211628</v>
       </c>
       <c r="G25">
-        <v>1.473773716584518</v>
+        <v>0.8533969673346746</v>
       </c>
       <c r="H25">
-        <v>1.355540626963176</v>
+        <v>0.6045964271316535</v>
       </c>
       <c r="I25">
-        <v>1.33578689167274</v>
+        <v>0.6331934344974073</v>
       </c>
       <c r="J25">
-        <v>0.1840187732844321</v>
+        <v>0.07449399207303387</v>
       </c>
       <c r="K25">
-        <v>0.6572602814439392</v>
+        <v>1.287932824081878</v>
       </c>
       <c r="L25">
-        <v>0.3882295187404026</v>
+        <v>0.3080209702700074</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.31972594193947</v>
+        <v>1.048916353801715</v>
       </c>
       <c r="O25">
         <v>0</v>
